--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erica\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Data Analytics Reflect Activity\EXCEL CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526943A4-22D7-4F4A-8694-A6D5690A29D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB7190FD-C62E-46A0-87DC-56F0BEA94DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2505" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
